--- a/data/i94_country_codes.xlsx
+++ b/data/i94_country_codes.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jukkan01/dev/projects/UdacityCources/udacity-dend-project-capstone/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{299BB377-6654-4D42-9FD6-AAA254C6E714}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435F00DD-0C5F-2148-89EA-325821B89B4A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51120" yWindow="-7340" windowWidth="11600" windowHeight="20040" activeTab="1" xr2:uid="{6622B895-E79B-3F4F-935F-0787AC3581F7}"/>
+    <workbookView xWindow="33620" yWindow="-7340" windowWidth="11760" windowHeight="27800" xr2:uid="{6622B895-E79B-3F4F-935F-0787AC3581F7}"/>
   </bookViews>
   <sheets>
     <sheet name="i94_country_codes" sheetId="1" r:id="rId1"/>
     <sheet name="i94_country_codes_clean" sheetId="5" r:id="rId2"/>
+    <sheet name="i94_and_iso_country_codes" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="country_codes_i94_clean" localSheetId="2">i94_and_iso_country_codes!$A$1:$C$290</definedName>
     <definedName name="country_codes_i94_clean" localSheetId="1">i94_country_codes_clean!$A$1:$C$290</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -37,7 +39,16 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{20B71BA7-87C2-E448-AC4B-E93203507784}" name="country_codes_i94_clean1" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/jukkan01/dev/projects/UdacityCources/udacity-dend-project-capstone/data/country_codes_i94_clean.csv" decimal="," thousands=" " comma="1">
+    <textPr sourceFile="/Users/jukkan01/dev/projects/UdacityCources/udacity-dend-project-capstone/data/country_codes_i94_clean.csv" decimal="," thousands=" " comma="1">
+      <textFields count="3">
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" xr16:uid="{AD5E1D29-B19C-1F43-8F58-69B083F42579}" name="country_codes_i94_clean11" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr sourceFile="/Users/jukkan01/dev/projects/UdacityCources/udacity-dend-project-capstone/data/country_codes_i94_clean.csv" decimal="," thousands=" " comma="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -49,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="583">
   <si>
     <t xml:space="preserve"> 'AFGHANISTAN'</t>
   </si>
@@ -1795,6 +1806,9 @@
   </si>
   <si>
     <t>No Country Code (996)</t>
+  </si>
+  <si>
+    <t>iso_country_code</t>
   </si>
 </sst>
 </file>
@@ -1852,6 +1866,10 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="country_codes_i94_clean" connectionId="1" xr16:uid="{3E01334F-33B6-9544-B130-EFD522E1389D}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="country_codes_i94_clean" connectionId="2" xr16:uid="{3170248D-A0AC-6D4A-81D8-444BD28AF9E5}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2151,2336 +2169,3207 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2756C4F0-680E-D64F-8AF0-6FA074B082C4}">
-  <dimension ref="A1:B290"/>
+  <dimension ref="A1:C290"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A188" workbookViewId="0">
+      <selection activeCell="C238" sqref="C238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.33203125" customWidth="1"/>
     <col min="2" max="2" width="53.5" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>582</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>236</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>101</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>316</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>102</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>324</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>529</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C8">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>518</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C9">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>687</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C10">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>151</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C11">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>532</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C12">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>438</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C13">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>103</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C14">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>152</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>512</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C16">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>298</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C17">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>274</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C18">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>513</v>
       </c>
       <c r="B19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C19">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>104</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C20">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>581</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C21">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>386</v>
       </c>
       <c r="B22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C22">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>509</v>
       </c>
       <c r="B23" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C23">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>153</v>
       </c>
       <c r="B24" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C24">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>242</v>
       </c>
       <c r="B25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>688</v>
       </c>
       <c r="B26" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C26">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>717</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C27">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>164</v>
       </c>
       <c r="B28" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C28">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>336</v>
       </c>
       <c r="B29" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C29">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>689</v>
       </c>
       <c r="B30" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C30">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>525</v>
       </c>
       <c r="B31" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C31">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>217</v>
       </c>
       <c r="B32" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C32">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>105</v>
       </c>
       <c r="B33" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C33">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>393</v>
       </c>
       <c r="B34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C34">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>243</v>
       </c>
       <c r="B35" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C35">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>375</v>
       </c>
       <c r="B36" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C36">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>310</v>
       </c>
       <c r="B37" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C37">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>326</v>
       </c>
       <c r="B38" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C38">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>526</v>
       </c>
       <c r="B39" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C39">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>383</v>
       </c>
       <c r="B40" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C40">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>384</v>
       </c>
       <c r="B41" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C41">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>690</v>
       </c>
       <c r="B42" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C42">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>245</v>
       </c>
       <c r="B43" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C43">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>721</v>
       </c>
       <c r="B44" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C44">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>270</v>
       </c>
       <c r="B45" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C45">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>271</v>
       </c>
       <c r="B46" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C46">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>691</v>
       </c>
       <c r="B47" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C47">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>317</v>
       </c>
       <c r="B48" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C48">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>385</v>
       </c>
       <c r="B49" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C49">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>467</v>
       </c>
       <c r="B50" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C50">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>575</v>
       </c>
       <c r="B51" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C51">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>165</v>
       </c>
       <c r="B52" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C52">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>584</v>
       </c>
       <c r="B53" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C53">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>218</v>
       </c>
       <c r="B54" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C54">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>140</v>
       </c>
       <c r="B55" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C55">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>723</v>
       </c>
       <c r="B56" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C56">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>108</v>
       </c>
       <c r="B57" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C57">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>322</v>
       </c>
       <c r="B58" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C58">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>519</v>
       </c>
       <c r="B59" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C59">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>585</v>
       </c>
       <c r="B60" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C60">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>240</v>
       </c>
       <c r="B61" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C61">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>692</v>
       </c>
       <c r="B62" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C62">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>368</v>
       </c>
       <c r="B63" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C63">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>576</v>
       </c>
       <c r="B64" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C64">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>399</v>
       </c>
       <c r="B65" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C65">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>372</v>
       </c>
       <c r="B66" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C66">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>109</v>
       </c>
       <c r="B67" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C67">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>369</v>
       </c>
       <c r="B68" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C68">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>604</v>
       </c>
       <c r="B69" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C69">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>413</v>
       </c>
       <c r="B70" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C70">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>110</v>
       </c>
       <c r="B71" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C71">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>111</v>
       </c>
       <c r="B72" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C72">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>601</v>
       </c>
       <c r="B73" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C73">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>411</v>
       </c>
       <c r="B74" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C74">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>387</v>
       </c>
       <c r="B75" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C75">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>338</v>
       </c>
       <c r="B76" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C76">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>758</v>
       </c>
       <c r="B77" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>154</v>
       </c>
       <c r="B78" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C78">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>112</v>
       </c>
       <c r="B79" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C79">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>339</v>
       </c>
       <c r="B80" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C80">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>143</v>
       </c>
       <c r="B81" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C81">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>113</v>
       </c>
       <c r="B82" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C82">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>520</v>
       </c>
       <c r="B83" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C83">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>507</v>
       </c>
       <c r="B84" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C84">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>577</v>
       </c>
       <c r="B85" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C85">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>382</v>
       </c>
       <c r="B86" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C86">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>327</v>
       </c>
       <c r="B87" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C87">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>603</v>
       </c>
       <c r="B88" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C88">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>586</v>
       </c>
       <c r="B89" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C89">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>726</v>
       </c>
       <c r="B90" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C90">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>149</v>
       </c>
       <c r="B91" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C91">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>528</v>
       </c>
       <c r="B92" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C92">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>206</v>
       </c>
       <c r="B93" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C93">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>114</v>
       </c>
       <c r="B94" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C94">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>115</v>
       </c>
       <c r="B95" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C95">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>213</v>
       </c>
       <c r="B96" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C96">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>759</v>
       </c>
       <c r="B97" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C97">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>729</v>
       </c>
       <c r="B98" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C98">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>204</v>
       </c>
       <c r="B99" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C99">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>249</v>
       </c>
       <c r="B100" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C100">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>250</v>
       </c>
       <c r="B101" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C101">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>116</v>
       </c>
       <c r="B102" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C102">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>251</v>
       </c>
       <c r="B103" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C103">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>117</v>
       </c>
       <c r="B104" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C104">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>388</v>
       </c>
       <c r="B105" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C105">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>514</v>
       </c>
       <c r="B106" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C106">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>209</v>
       </c>
       <c r="B107" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C107">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>253</v>
       </c>
       <c r="B108" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C108">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>201</v>
       </c>
       <c r="B109" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C109">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>155</v>
       </c>
       <c r="B110" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C110">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>340</v>
       </c>
       <c r="B111" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C111">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>414</v>
       </c>
       <c r="B112" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C112">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>732</v>
       </c>
       <c r="B113" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>272</v>
       </c>
       <c r="B114" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C114">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>156</v>
       </c>
       <c r="B115" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C115">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>203</v>
       </c>
       <c r="B116" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C116">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>118</v>
       </c>
       <c r="B117" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C117">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>255</v>
       </c>
       <c r="B118" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C118">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>335</v>
       </c>
       <c r="B119" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C119">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>370</v>
       </c>
       <c r="B120" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C120">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>381</v>
       </c>
       <c r="B121" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C121">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>119</v>
       </c>
       <c r="B122" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C122">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>120</v>
       </c>
       <c r="B123" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C123">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>121</v>
       </c>
       <c r="B124" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C124">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>214</v>
       </c>
       <c r="B125" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C125">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>167</v>
       </c>
       <c r="B126" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C126">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>320</v>
       </c>
       <c r="B127" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C127">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>345</v>
       </c>
       <c r="B128" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C128">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>273</v>
       </c>
       <c r="B129" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C129">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>220</v>
       </c>
       <c r="B130" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C130">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>392</v>
       </c>
       <c r="B131" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C131">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>145</v>
       </c>
       <c r="B132" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C132">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>472</v>
       </c>
       <c r="B133" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C133">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>511</v>
       </c>
       <c r="B134" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C134">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>389</v>
       </c>
       <c r="B135" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C135">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>342</v>
       </c>
       <c r="B136" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C136">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>760</v>
       </c>
       <c r="B137" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C137">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>473</v>
       </c>
       <c r="B138" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C138">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>157</v>
       </c>
       <c r="B139" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C139">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>122</v>
       </c>
       <c r="B140" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C140">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>299</v>
       </c>
       <c r="B141" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C141">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>735</v>
       </c>
       <c r="B142" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C142">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>521</v>
       </c>
       <c r="B143" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C143">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>332</v>
       </c>
       <c r="B144" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C144">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>329</v>
       </c>
       <c r="B145" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C145">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>371</v>
       </c>
       <c r="B146" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C146">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>440</v>
       </c>
       <c r="B147" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C147">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>257</v>
       </c>
       <c r="B148" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C148">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>123</v>
       </c>
       <c r="B149" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C149">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>508</v>
       </c>
       <c r="B150" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>409</v>
       </c>
       <c r="B151" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C151">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>464</v>
       </c>
       <c r="B152" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C152">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>579</v>
       </c>
       <c r="B153" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C153">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>390</v>
       </c>
       <c r="B154" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C154">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>343</v>
       </c>
       <c r="B155" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C155">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>470</v>
       </c>
       <c r="B156" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C156">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>275</v>
       </c>
       <c r="B157" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C157">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>124</v>
       </c>
       <c r="B158" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C158">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>256</v>
       </c>
       <c r="B159" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C159">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>258</v>
       </c>
       <c r="B160" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C160">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>474</v>
       </c>
       <c r="B161" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C161">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>743</v>
       </c>
       <c r="B162" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C162">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>504</v>
       </c>
       <c r="B163" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C163">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>441</v>
       </c>
       <c r="B164" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C164">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>693</v>
       </c>
       <c r="B165" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C165">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>694</v>
       </c>
       <c r="B166" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C166">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>260</v>
       </c>
       <c r="B167" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C167">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>416</v>
       </c>
       <c r="B168" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C168">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>107</v>
       </c>
       <c r="B169" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C169">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>126</v>
       </c>
       <c r="B170" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C170">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>297</v>
       </c>
       <c r="B171" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C171">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>748</v>
       </c>
       <c r="B172" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C172">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>321</v>
       </c>
       <c r="B173" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C173">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>127</v>
       </c>
       <c r="B174" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C174">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>158</v>
       </c>
       <c r="B175" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C175">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>376</v>
       </c>
       <c r="B176" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C176">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>128</v>
       </c>
       <c r="B177" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C177">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>330</v>
       </c>
       <c r="B178" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C178">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>261</v>
       </c>
       <c r="B179" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C179">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>391</v>
       </c>
       <c r="B180" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C180">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>142</v>
       </c>
       <c r="B181" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>745</v>
       </c>
       <c r="B182" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C182">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>347</v>
       </c>
       <c r="B183" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C183">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>348</v>
       </c>
       <c r="B184" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C184">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>207</v>
       </c>
       <c r="B185" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C185">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>141</v>
       </c>
       <c r="B186" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C186">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>166</v>
       </c>
       <c r="B187" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C187">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>412</v>
       </c>
       <c r="B188" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C188">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>397</v>
       </c>
       <c r="B189" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C189">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>373</v>
       </c>
       <c r="B190" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C190">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>276</v>
       </c>
       <c r="B191" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C191">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>129</v>
       </c>
       <c r="B192" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C192">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>244</v>
       </c>
       <c r="B193" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C193">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>346</v>
       </c>
       <c r="B194" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C194">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>522</v>
       </c>
       <c r="B195" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C195">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>523</v>
       </c>
       <c r="B196" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C196">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>502</v>
       </c>
       <c r="B197" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C197">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>524</v>
       </c>
       <c r="B198" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C198">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>716</v>
       </c>
       <c r="B199" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C199">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>736</v>
       </c>
       <c r="B200" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C200">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>749</v>
       </c>
       <c r="B201" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C201">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>350</v>
       </c>
       <c r="B202" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C202">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>602</v>
       </c>
       <c r="B203" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C203">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>351</v>
       </c>
       <c r="B204" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C204">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>130</v>
       </c>
       <c r="B205" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C205">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>131</v>
       </c>
       <c r="B206" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C206">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>262</v>
       </c>
       <c r="B207" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C207">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>268</v>
       </c>
       <c r="B208" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C208">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>159</v>
       </c>
       <c r="B209" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C209">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>353</v>
       </c>
       <c r="B210" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C210">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>263</v>
       </c>
       <c r="B211" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C211">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>304</v>
       </c>
       <c r="B212" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C212">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>417</v>
       </c>
       <c r="B213" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C213">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>516</v>
       </c>
       <c r="B214" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C214">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>323</v>
       </c>
       <c r="B215" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C215">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>264</v>
       </c>
       <c r="B216" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C216">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>161</v>
       </c>
       <c r="B217" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C217">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>527</v>
       </c>
       <c r="B218" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C218">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>420</v>
       </c>
       <c r="B219" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C219">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>352</v>
       </c>
       <c r="B220" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C220">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>162</v>
       </c>
       <c r="B221" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C221">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>296</v>
       </c>
       <c r="B222" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C222">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>135</v>
       </c>
       <c r="B223" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C223">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>695</v>
       </c>
       <c r="B224" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C224">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>163</v>
       </c>
       <c r="B225" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C225">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>410</v>
       </c>
       <c r="B226" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C226">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>696</v>
       </c>
       <c r="B227" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C227">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>266</v>
       </c>
       <c r="B228" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C228">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>469</v>
       </c>
       <c r="B229" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C229">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>757</v>
       </c>
       <c r="B230" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>333</v>
       </c>
       <c r="B231" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C231">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>465</v>
       </c>
       <c r="B232" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C232">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>216</v>
       </c>
       <c r="B233" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C233">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>139</v>
       </c>
       <c r="B234" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>301</v>
       </c>
       <c r="B235" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>344</v>
       </c>
       <c r="B236" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C236">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>315</v>
       </c>
       <c r="B237" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C237">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>403</v>
       </c>
       <c r="B238" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>712</v>
       </c>
       <c r="B239" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>700</v>
       </c>
       <c r="B240" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>719</v>
       </c>
       <c r="B241" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>574</v>
       </c>
       <c r="B242" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>720</v>
       </c>
       <c r="B243" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>106</v>
       </c>
       <c r="B244" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>739</v>
       </c>
       <c r="B245" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>394</v>
       </c>
       <c r="B246" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>501</v>
       </c>
       <c r="B247" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>404</v>
       </c>
       <c r="B248" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>730</v>
       </c>
       <c r="B249" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>731</v>
       </c>
       <c r="B250" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>471</v>
       </c>
       <c r="B251" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>737</v>
       </c>
       <c r="B252" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>753</v>
       </c>
       <c r="B253" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>740</v>
       </c>
       <c r="B254" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>710</v>
       </c>
       <c r="B255" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>505</v>
       </c>
       <c r="B256" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>0</v>
       </c>
       <c r="B257" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>705</v>
       </c>
       <c r="B258" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>583</v>
       </c>
       <c r="B259" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>407</v>
       </c>
       <c r="B260" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>999</v>
       </c>
       <c r="B261" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>239</v>
       </c>
       <c r="B262" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>134</v>
       </c>
       <c r="B263" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>506</v>
       </c>
       <c r="B264" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>755</v>
       </c>
       <c r="B265" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>311</v>
       </c>
       <c r="B266" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>741</v>
       </c>
       <c r="B267" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>54</v>
       </c>
       <c r="B268" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>100</v>
       </c>
       <c r="B269" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>187</v>
       </c>
       <c r="B270" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>190</v>
       </c>
       <c r="B271" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>200</v>
       </c>
       <c r="B272" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>219</v>
       </c>
       <c r="B273" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>238</v>
       </c>
       <c r="B274" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>277</v>
       </c>
       <c r="B275" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>293</v>
       </c>
       <c r="B276" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>300</v>
       </c>
       <c r="B277" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>319</v>
       </c>
       <c r="B278" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>365</v>
       </c>
       <c r="B279" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>395</v>
       </c>
       <c r="B280" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>400</v>
       </c>
       <c r="B281" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>485</v>
       </c>
       <c r="B282" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>503</v>
       </c>
       <c r="B283" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>589</v>
       </c>
       <c r="B284" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>592</v>
       </c>
       <c r="B285" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>791</v>
       </c>
       <c r="B286" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>849</v>
       </c>
       <c r="B287" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>914</v>
       </c>
       <c r="B288" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>944</v>
       </c>
       <c r="B289" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>996</v>
       </c>
       <c r="B290" t="s">
         <v>285</v>
+      </c>
+      <c r="C290">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4492,8 +5381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA203F1C-E177-244C-BAE0-4EC9A16CBF16}">
   <dimension ref="A1:C290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A213" workbookViewId="0">
-      <selection activeCell="C234" sqref="C234"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4501,6 +5390,7 @@
     <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -7693,4 +8583,3357 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C03BBA9E-1C4A-4C45-9D92-AC0C43A5A0FB}">
+  <dimension ref="A1:D290"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="5.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>582</v>
+      </c>
+      <c r="C2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D2">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>236</v>
+      </c>
+      <c r="C3" t="s">
+        <v>424</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>101</v>
+      </c>
+      <c r="C4" t="s">
+        <v>294</v>
+      </c>
+      <c r="D4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>316</v>
+      </c>
+      <c r="C5" t="s">
+        <v>295</v>
+      </c>
+      <c r="D5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>102</v>
+      </c>
+      <c r="C6" t="s">
+        <v>296</v>
+      </c>
+      <c r="D6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>324</v>
+      </c>
+      <c r="C7" t="s">
+        <v>425</v>
+      </c>
+      <c r="D7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>529</v>
+      </c>
+      <c r="C8" t="s">
+        <v>297</v>
+      </c>
+      <c r="D8">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>518</v>
+      </c>
+      <c r="C9" t="s">
+        <v>426</v>
+      </c>
+      <c r="D9">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>687</v>
+      </c>
+      <c r="C10" t="s">
+        <v>427</v>
+      </c>
+      <c r="D10">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>151</v>
+      </c>
+      <c r="C11" t="s">
+        <v>298</v>
+      </c>
+      <c r="D11">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>532</v>
+      </c>
+      <c r="C12" t="s">
+        <v>428</v>
+      </c>
+      <c r="D12">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>438</v>
+      </c>
+      <c r="C13" t="s">
+        <v>299</v>
+      </c>
+      <c r="D13">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>103</v>
+      </c>
+      <c r="C14" t="s">
+        <v>429</v>
+      </c>
+      <c r="D14">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>152</v>
+      </c>
+      <c r="C15" t="s">
+        <v>300</v>
+      </c>
+      <c r="D15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>512</v>
+      </c>
+      <c r="C16" t="s">
+        <v>301</v>
+      </c>
+      <c r="D16">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>298</v>
+      </c>
+      <c r="C17" t="s">
+        <v>302</v>
+      </c>
+      <c r="D17">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>274</v>
+      </c>
+      <c r="C18" t="s">
+        <v>430</v>
+      </c>
+      <c r="D18">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>513</v>
+      </c>
+      <c r="C19" t="s">
+        <v>303</v>
+      </c>
+      <c r="D19">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>104</v>
+      </c>
+      <c r="C20" t="s">
+        <v>304</v>
+      </c>
+      <c r="D20">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>581</v>
+      </c>
+      <c r="C21" t="s">
+        <v>305</v>
+      </c>
+      <c r="D21">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>386</v>
+      </c>
+      <c r="C22" t="s">
+        <v>431</v>
+      </c>
+      <c r="D22">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>509</v>
+      </c>
+      <c r="C23" t="s">
+        <v>306</v>
+      </c>
+      <c r="D23">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>153</v>
+      </c>
+      <c r="C24" t="s">
+        <v>432</v>
+      </c>
+      <c r="D24">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>242</v>
+      </c>
+      <c r="C25" t="s">
+        <v>433</v>
+      </c>
+      <c r="D25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>688</v>
+      </c>
+      <c r="C26" t="s">
+        <v>434</v>
+      </c>
+      <c r="D26">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>717</v>
+      </c>
+      <c r="C27" t="s">
+        <v>435</v>
+      </c>
+      <c r="D27">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>164</v>
+      </c>
+      <c r="C28" t="s">
+        <v>307</v>
+      </c>
+      <c r="D28">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>336</v>
+      </c>
+      <c r="C29" t="s">
+        <v>436</v>
+      </c>
+      <c r="D29">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>689</v>
+      </c>
+      <c r="C30" t="s">
+        <v>308</v>
+      </c>
+      <c r="D30">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>525</v>
+      </c>
+      <c r="C31" t="s">
+        <v>437</v>
+      </c>
+      <c r="D31">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>217</v>
+      </c>
+      <c r="C32" t="s">
+        <v>438</v>
+      </c>
+      <c r="D32">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>105</v>
+      </c>
+      <c r="C33" t="s">
+        <v>309</v>
+      </c>
+      <c r="D33">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>393</v>
+      </c>
+      <c r="C34" t="s">
+        <v>310</v>
+      </c>
+      <c r="D34">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>243</v>
+      </c>
+      <c r="C35" t="s">
+        <v>439</v>
+      </c>
+      <c r="D35">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>375</v>
+      </c>
+      <c r="C36" t="s">
+        <v>440</v>
+      </c>
+      <c r="D36">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>310</v>
+      </c>
+      <c r="C37" t="s">
+        <v>311</v>
+      </c>
+      <c r="D37">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>326</v>
+      </c>
+      <c r="C38" t="s">
+        <v>312</v>
+      </c>
+      <c r="D38">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>526</v>
+      </c>
+      <c r="C39" t="s">
+        <v>313</v>
+      </c>
+      <c r="D39">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>383</v>
+      </c>
+      <c r="C40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D40">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>384</v>
+      </c>
+      <c r="C41" t="s">
+        <v>442</v>
+      </c>
+      <c r="D41">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>690</v>
+      </c>
+      <c r="C42" t="s">
+        <v>443</v>
+      </c>
+      <c r="D42">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>245</v>
+      </c>
+      <c r="C43" t="s">
+        <v>314</v>
+      </c>
+      <c r="D43">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>721</v>
+      </c>
+      <c r="C44" t="s">
+        <v>444</v>
+      </c>
+      <c r="D44">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>270</v>
+      </c>
+      <c r="C45" t="s">
+        <v>445</v>
+      </c>
+      <c r="D45">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>271</v>
+      </c>
+      <c r="C46" t="s">
+        <v>315</v>
+      </c>
+      <c r="D46">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>691</v>
+      </c>
+      <c r="C47" t="s">
+        <v>446</v>
+      </c>
+      <c r="D47">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>317</v>
+      </c>
+      <c r="C48" t="s">
+        <v>316</v>
+      </c>
+      <c r="D48">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>385</v>
+      </c>
+      <c r="C49" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>467</v>
+      </c>
+      <c r="C50" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>575</v>
+      </c>
+      <c r="C51" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>165</v>
+      </c>
+      <c r="C52" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>584</v>
+      </c>
+      <c r="C53" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>218</v>
+      </c>
+      <c r="C54" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>140</v>
+      </c>
+      <c r="C55" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>723</v>
+      </c>
+      <c r="C56" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>108</v>
+      </c>
+      <c r="C57" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>322</v>
+      </c>
+      <c r="C58" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>519</v>
+      </c>
+      <c r="C59" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>585</v>
+      </c>
+      <c r="C60" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>240</v>
+      </c>
+      <c r="C61" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>692</v>
+      </c>
+      <c r="C62" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>368</v>
+      </c>
+      <c r="C63" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>576</v>
+      </c>
+      <c r="C64" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>399</v>
+      </c>
+      <c r="C65" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>372</v>
+      </c>
+      <c r="C66" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>109</v>
+      </c>
+      <c r="C67" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>369</v>
+      </c>
+      <c r="C68" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>604</v>
+      </c>
+      <c r="C69" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>413</v>
+      </c>
+      <c r="C70" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>110</v>
+      </c>
+      <c r="C71" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>111</v>
+      </c>
+      <c r="C72" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>601</v>
+      </c>
+      <c r="C73" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>411</v>
+      </c>
+      <c r="C74" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>387</v>
+      </c>
+      <c r="C75" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>338</v>
+      </c>
+      <c r="C76" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>758</v>
+      </c>
+      <c r="C77" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>154</v>
+      </c>
+      <c r="C78" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>112</v>
+      </c>
+      <c r="C79" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>339</v>
+      </c>
+      <c r="C80" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>143</v>
+      </c>
+      <c r="C81" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>113</v>
+      </c>
+      <c r="C82" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>520</v>
+      </c>
+      <c r="C83" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>507</v>
+      </c>
+      <c r="C84" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>577</v>
+      </c>
+      <c r="C85" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>382</v>
+      </c>
+      <c r="C86" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>327</v>
+      </c>
+      <c r="C87" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>603</v>
+      </c>
+      <c r="C88" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>586</v>
+      </c>
+      <c r="C89" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>726</v>
+      </c>
+      <c r="C90" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>149</v>
+      </c>
+      <c r="C91" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>528</v>
+      </c>
+      <c r="C92" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>206</v>
+      </c>
+      <c r="C93" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>114</v>
+      </c>
+      <c r="C94" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>115</v>
+      </c>
+      <c r="C95" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>213</v>
+      </c>
+      <c r="C96" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>759</v>
+      </c>
+      <c r="C97" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>729</v>
+      </c>
+      <c r="C98" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>204</v>
+      </c>
+      <c r="C99" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>249</v>
+      </c>
+      <c r="C100" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>250</v>
+      </c>
+      <c r="C101" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>116</v>
+      </c>
+      <c r="C102" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>101</v>
+      </c>
+      <c r="B103">
+        <v>251</v>
+      </c>
+      <c r="C103" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>102</v>
+      </c>
+      <c r="B104">
+        <v>117</v>
+      </c>
+      <c r="C104" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>103</v>
+      </c>
+      <c r="B105">
+        <v>388</v>
+      </c>
+      <c r="C105" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>104</v>
+      </c>
+      <c r="B106">
+        <v>514</v>
+      </c>
+      <c r="C106" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>105</v>
+      </c>
+      <c r="B107">
+        <v>209</v>
+      </c>
+      <c r="C107" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>106</v>
+      </c>
+      <c r="B108">
+        <v>253</v>
+      </c>
+      <c r="C108" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>107</v>
+      </c>
+      <c r="B109">
+        <v>201</v>
+      </c>
+      <c r="C109" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>108</v>
+      </c>
+      <c r="B110">
+        <v>155</v>
+      </c>
+      <c r="C110" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>109</v>
+      </c>
+      <c r="B111">
+        <v>340</v>
+      </c>
+      <c r="C111" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>110</v>
+      </c>
+      <c r="B112">
+        <v>414</v>
+      </c>
+      <c r="C112" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>111</v>
+      </c>
+      <c r="B113">
+        <v>732</v>
+      </c>
+      <c r="C113" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>112</v>
+      </c>
+      <c r="B114">
+        <v>272</v>
+      </c>
+      <c r="C114" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>113</v>
+      </c>
+      <c r="B115">
+        <v>156</v>
+      </c>
+      <c r="C115" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>114</v>
+      </c>
+      <c r="B116">
+        <v>203</v>
+      </c>
+      <c r="C116" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>115</v>
+      </c>
+      <c r="B117">
+        <v>118</v>
+      </c>
+      <c r="C117" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>116</v>
+      </c>
+      <c r="B118">
+        <v>255</v>
+      </c>
+      <c r="C118" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <v>335</v>
+      </c>
+      <c r="C119" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <v>370</v>
+      </c>
+      <c r="C120" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <v>381</v>
+      </c>
+      <c r="C121" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <v>119</v>
+      </c>
+      <c r="C122" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>121</v>
+      </c>
+      <c r="B123">
+        <v>120</v>
+      </c>
+      <c r="C123" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>122</v>
+      </c>
+      <c r="B124">
+        <v>121</v>
+      </c>
+      <c r="C124" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>123</v>
+      </c>
+      <c r="B125">
+        <v>214</v>
+      </c>
+      <c r="C125" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>124</v>
+      </c>
+      <c r="B126">
+        <v>167</v>
+      </c>
+      <c r="C126" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>125</v>
+      </c>
+      <c r="B127">
+        <v>320</v>
+      </c>
+      <c r="C127" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <v>345</v>
+      </c>
+      <c r="C128" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <v>273</v>
+      </c>
+      <c r="C129" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <v>220</v>
+      </c>
+      <c r="C130" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <v>392</v>
+      </c>
+      <c r="C131" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <v>145</v>
+      </c>
+      <c r="C132" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <v>472</v>
+      </c>
+      <c r="C133" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <v>511</v>
+      </c>
+      <c r="C134" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <v>389</v>
+      </c>
+      <c r="C135" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <v>342</v>
+      </c>
+      <c r="C136" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <v>760</v>
+      </c>
+      <c r="C137" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <v>473</v>
+      </c>
+      <c r="C138" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>137</v>
+      </c>
+      <c r="B139">
+        <v>157</v>
+      </c>
+      <c r="C139" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>138</v>
+      </c>
+      <c r="B140">
+        <v>122</v>
+      </c>
+      <c r="C140" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>139</v>
+      </c>
+      <c r="B141">
+        <v>299</v>
+      </c>
+      <c r="C141" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <v>735</v>
+      </c>
+      <c r="C142" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <v>521</v>
+      </c>
+      <c r="C143" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <v>332</v>
+      </c>
+      <c r="C144" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <v>329</v>
+      </c>
+      <c r="C145" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>144</v>
+      </c>
+      <c r="B146">
+        <v>371</v>
+      </c>
+      <c r="C146" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>145</v>
+      </c>
+      <c r="B147">
+        <v>440</v>
+      </c>
+      <c r="C147" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>146</v>
+      </c>
+      <c r="B148">
+        <v>257</v>
+      </c>
+      <c r="C148" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <v>123</v>
+      </c>
+      <c r="C149" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>148</v>
+      </c>
+      <c r="B150">
+        <v>508</v>
+      </c>
+      <c r="C150" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>149</v>
+      </c>
+      <c r="B151">
+        <v>409</v>
+      </c>
+      <c r="C151" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>150</v>
+      </c>
+      <c r="B152">
+        <v>464</v>
+      </c>
+      <c r="C152" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>151</v>
+      </c>
+      <c r="B153">
+        <v>579</v>
+      </c>
+      <c r="C153" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>152</v>
+      </c>
+      <c r="B154">
+        <v>390</v>
+      </c>
+      <c r="C154" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>153</v>
+      </c>
+      <c r="B155">
+        <v>343</v>
+      </c>
+      <c r="C155" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>154</v>
+      </c>
+      <c r="B156">
+        <v>470</v>
+      </c>
+      <c r="C156" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>155</v>
+      </c>
+      <c r="B157">
+        <v>275</v>
+      </c>
+      <c r="C157" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>156</v>
+      </c>
+      <c r="B158">
+        <v>124</v>
+      </c>
+      <c r="C158" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>157</v>
+      </c>
+      <c r="B159">
+        <v>256</v>
+      </c>
+      <c r="C159" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>158</v>
+      </c>
+      <c r="B160">
+        <v>258</v>
+      </c>
+      <c r="C160" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>159</v>
+      </c>
+      <c r="B161">
+        <v>474</v>
+      </c>
+      <c r="C161" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>160</v>
+      </c>
+      <c r="B162">
+        <v>743</v>
+      </c>
+      <c r="C162" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>161</v>
+      </c>
+      <c r="B163">
+        <v>504</v>
+      </c>
+      <c r="C163" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>162</v>
+      </c>
+      <c r="B164">
+        <v>441</v>
+      </c>
+      <c r="C164" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>163</v>
+      </c>
+      <c r="B165">
+        <v>693</v>
+      </c>
+      <c r="C165" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>164</v>
+      </c>
+      <c r="B166">
+        <v>694</v>
+      </c>
+      <c r="C166" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>165</v>
+      </c>
+      <c r="B167">
+        <v>260</v>
+      </c>
+      <c r="C167" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>166</v>
+      </c>
+      <c r="B168">
+        <v>416</v>
+      </c>
+      <c r="C168" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <v>107</v>
+      </c>
+      <c r="C169" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>168</v>
+      </c>
+      <c r="B170">
+        <v>126</v>
+      </c>
+      <c r="C170" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>169</v>
+      </c>
+      <c r="B171">
+        <v>297</v>
+      </c>
+      <c r="C171" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>170</v>
+      </c>
+      <c r="B172">
+        <v>748</v>
+      </c>
+      <c r="C172" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>171</v>
+      </c>
+      <c r="B173">
+        <v>321</v>
+      </c>
+      <c r="C173" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>172</v>
+      </c>
+      <c r="B174">
+        <v>127</v>
+      </c>
+      <c r="C174" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>173</v>
+      </c>
+      <c r="B175">
+        <v>158</v>
+      </c>
+      <c r="C175" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>174</v>
+      </c>
+      <c r="B176">
+        <v>376</v>
+      </c>
+      <c r="C176" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>175</v>
+      </c>
+      <c r="B177">
+        <v>128</v>
+      </c>
+      <c r="C177" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>176</v>
+      </c>
+      <c r="B178">
+        <v>330</v>
+      </c>
+      <c r="C178" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>177</v>
+      </c>
+      <c r="B179">
+        <v>261</v>
+      </c>
+      <c r="C179" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>178</v>
+      </c>
+      <c r="B180">
+        <v>391</v>
+      </c>
+      <c r="C180" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>179</v>
+      </c>
+      <c r="B181">
+        <v>142</v>
+      </c>
+      <c r="C181" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>180</v>
+      </c>
+      <c r="B182">
+        <v>745</v>
+      </c>
+      <c r="C182" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>181</v>
+      </c>
+      <c r="B183">
+        <v>347</v>
+      </c>
+      <c r="C183" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>182</v>
+      </c>
+      <c r="B184">
+        <v>348</v>
+      </c>
+      <c r="C184" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>183</v>
+      </c>
+      <c r="B185">
+        <v>207</v>
+      </c>
+      <c r="C185" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>184</v>
+      </c>
+      <c r="B186">
+        <v>141</v>
+      </c>
+      <c r="C186" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>185</v>
+      </c>
+      <c r="B187">
+        <v>166</v>
+      </c>
+      <c r="C187" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>186</v>
+      </c>
+      <c r="B188">
+        <v>412</v>
+      </c>
+      <c r="C188" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>187</v>
+      </c>
+      <c r="B189">
+        <v>397</v>
+      </c>
+      <c r="C189" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>188</v>
+      </c>
+      <c r="B190">
+        <v>373</v>
+      </c>
+      <c r="C190" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>189</v>
+      </c>
+      <c r="B191">
+        <v>276</v>
+      </c>
+      <c r="C191" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>190</v>
+      </c>
+      <c r="B192">
+        <v>129</v>
+      </c>
+      <c r="C192" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>191</v>
+      </c>
+      <c r="B193">
+        <v>244</v>
+      </c>
+      <c r="C193" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>192</v>
+      </c>
+      <c r="B194">
+        <v>346</v>
+      </c>
+      <c r="C194" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>193</v>
+      </c>
+      <c r="B195">
+        <v>522</v>
+      </c>
+      <c r="C195" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <v>194</v>
+      </c>
+      <c r="B196">
+        <v>523</v>
+      </c>
+      <c r="C196" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <v>195</v>
+      </c>
+      <c r="B197">
+        <v>502</v>
+      </c>
+      <c r="C197" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <v>196</v>
+      </c>
+      <c r="B198">
+        <v>524</v>
+      </c>
+      <c r="C198" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <v>197</v>
+      </c>
+      <c r="B199">
+        <v>716</v>
+      </c>
+      <c r="C199" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>198</v>
+      </c>
+      <c r="B200">
+        <v>736</v>
+      </c>
+      <c r="C200" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <v>199</v>
+      </c>
+      <c r="B201">
+        <v>749</v>
+      </c>
+      <c r="C201" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <v>200</v>
+      </c>
+      <c r="B202">
+        <v>350</v>
+      </c>
+      <c r="C202" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <v>201</v>
+      </c>
+      <c r="B203">
+        <v>602</v>
+      </c>
+      <c r="C203" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <v>202</v>
+      </c>
+      <c r="B204">
+        <v>351</v>
+      </c>
+      <c r="C204" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <v>203</v>
+      </c>
+      <c r="B205">
+        <v>130</v>
+      </c>
+      <c r="C205" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <v>204</v>
+      </c>
+      <c r="B206">
+        <v>131</v>
+      </c>
+      <c r="C206" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <v>205</v>
+      </c>
+      <c r="B207">
+        <v>262</v>
+      </c>
+      <c r="C207" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <v>206</v>
+      </c>
+      <c r="B208">
+        <v>268</v>
+      </c>
+      <c r="C208" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <v>207</v>
+      </c>
+      <c r="B209">
+        <v>159</v>
+      </c>
+      <c r="C209" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <v>208</v>
+      </c>
+      <c r="B210">
+        <v>353</v>
+      </c>
+      <c r="C210" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <v>209</v>
+      </c>
+      <c r="B211">
+        <v>263</v>
+      </c>
+      <c r="C211" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A212">
+        <v>210</v>
+      </c>
+      <c r="B212">
+        <v>304</v>
+      </c>
+      <c r="C212" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A213">
+        <v>211</v>
+      </c>
+      <c r="B213">
+        <v>417</v>
+      </c>
+      <c r="C213" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <v>212</v>
+      </c>
+      <c r="B214">
+        <v>516</v>
+      </c>
+      <c r="C214" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <v>213</v>
+      </c>
+      <c r="B215">
+        <v>323</v>
+      </c>
+      <c r="C215" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <v>214</v>
+      </c>
+      <c r="B216">
+        <v>264</v>
+      </c>
+      <c r="C216" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <v>215</v>
+      </c>
+      <c r="B217">
+        <v>161</v>
+      </c>
+      <c r="C217" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A218">
+        <v>216</v>
+      </c>
+      <c r="B218">
+        <v>527</v>
+      </c>
+      <c r="C218" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <v>217</v>
+      </c>
+      <c r="B219">
+        <v>420</v>
+      </c>
+      <c r="C219" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <v>218</v>
+      </c>
+      <c r="B220">
+        <v>352</v>
+      </c>
+      <c r="C220" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <v>219</v>
+      </c>
+      <c r="B221">
+        <v>162</v>
+      </c>
+      <c r="C221" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <v>220</v>
+      </c>
+      <c r="B222">
+        <v>296</v>
+      </c>
+      <c r="C222" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <v>221</v>
+      </c>
+      <c r="B223">
+        <v>135</v>
+      </c>
+      <c r="C223" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A224">
+        <v>222</v>
+      </c>
+      <c r="B224">
+        <v>695</v>
+      </c>
+      <c r="C224" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <v>223</v>
+      </c>
+      <c r="B225">
+        <v>163</v>
+      </c>
+      <c r="C225" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <v>224</v>
+      </c>
+      <c r="B226">
+        <v>410</v>
+      </c>
+      <c r="C226" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <v>225</v>
+      </c>
+      <c r="B227">
+        <v>696</v>
+      </c>
+      <c r="C227" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <v>226</v>
+      </c>
+      <c r="B228">
+        <v>266</v>
+      </c>
+      <c r="C228" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <v>227</v>
+      </c>
+      <c r="B229">
+        <v>469</v>
+      </c>
+      <c r="C229" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <v>228</v>
+      </c>
+      <c r="B230">
+        <v>757</v>
+      </c>
+      <c r="C230" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <v>229</v>
+      </c>
+      <c r="B231">
+        <v>333</v>
+      </c>
+      <c r="C231" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <v>230</v>
+      </c>
+      <c r="B232">
+        <v>465</v>
+      </c>
+      <c r="C232" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <v>231</v>
+      </c>
+      <c r="B233">
+        <v>216</v>
+      </c>
+      <c r="C233" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <v>232</v>
+      </c>
+      <c r="B234">
+        <v>139</v>
+      </c>
+      <c r="C234" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <v>233</v>
+      </c>
+      <c r="B235">
+        <v>301</v>
+      </c>
+      <c r="C235" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <v>234</v>
+      </c>
+      <c r="B236">
+        <v>344</v>
+      </c>
+      <c r="C236" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <v>235</v>
+      </c>
+      <c r="B237">
+        <v>315</v>
+      </c>
+      <c r="C237" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <v>236</v>
+      </c>
+      <c r="B238">
+        <v>403</v>
+      </c>
+      <c r="C238" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <v>237</v>
+      </c>
+      <c r="B239">
+        <v>712</v>
+      </c>
+      <c r="C239" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A240">
+        <v>238</v>
+      </c>
+      <c r="B240">
+        <v>700</v>
+      </c>
+      <c r="C240" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A241">
+        <v>239</v>
+      </c>
+      <c r="B241">
+        <v>719</v>
+      </c>
+      <c r="C241" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A242">
+        <v>240</v>
+      </c>
+      <c r="B242">
+        <v>574</v>
+      </c>
+      <c r="C242" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A243">
+        <v>241</v>
+      </c>
+      <c r="B243">
+        <v>720</v>
+      </c>
+      <c r="C243" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A244">
+        <v>242</v>
+      </c>
+      <c r="B244">
+        <v>106</v>
+      </c>
+      <c r="C244" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A245">
+        <v>243</v>
+      </c>
+      <c r="B245">
+        <v>739</v>
+      </c>
+      <c r="C245" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A246">
+        <v>244</v>
+      </c>
+      <c r="B246">
+        <v>394</v>
+      </c>
+      <c r="C246" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A247">
+        <v>245</v>
+      </c>
+      <c r="B247">
+        <v>501</v>
+      </c>
+      <c r="C247" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A248">
+        <v>246</v>
+      </c>
+      <c r="B248">
+        <v>404</v>
+      </c>
+      <c r="C248" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A249">
+        <v>247</v>
+      </c>
+      <c r="B249">
+        <v>730</v>
+      </c>
+      <c r="C249" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A250">
+        <v>248</v>
+      </c>
+      <c r="B250">
+        <v>731</v>
+      </c>
+      <c r="C250" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A251">
+        <v>249</v>
+      </c>
+      <c r="B251">
+        <v>471</v>
+      </c>
+      <c r="C251" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A252">
+        <v>250</v>
+      </c>
+      <c r="B252">
+        <v>737</v>
+      </c>
+      <c r="C252" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A253">
+        <v>251</v>
+      </c>
+      <c r="B253">
+        <v>753</v>
+      </c>
+      <c r="C253" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A254">
+        <v>252</v>
+      </c>
+      <c r="B254">
+        <v>740</v>
+      </c>
+      <c r="C254" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A255">
+        <v>253</v>
+      </c>
+      <c r="B255">
+        <v>710</v>
+      </c>
+      <c r="C255" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A256">
+        <v>254</v>
+      </c>
+      <c r="B256">
+        <v>505</v>
+      </c>
+      <c r="C256" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A257">
+        <v>255</v>
+      </c>
+      <c r="B257">
+        <v>0</v>
+      </c>
+      <c r="C257" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A258">
+        <v>256</v>
+      </c>
+      <c r="B258">
+        <v>705</v>
+      </c>
+      <c r="C258" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A259">
+        <v>257</v>
+      </c>
+      <c r="B259">
+        <v>583</v>
+      </c>
+      <c r="C259" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A260">
+        <v>258</v>
+      </c>
+      <c r="B260">
+        <v>407</v>
+      </c>
+      <c r="C260" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A261">
+        <v>259</v>
+      </c>
+      <c r="B261">
+        <v>999</v>
+      </c>
+      <c r="C261" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A262">
+        <v>260</v>
+      </c>
+      <c r="B262">
+        <v>239</v>
+      </c>
+      <c r="C262" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A263">
+        <v>261</v>
+      </c>
+      <c r="B263">
+        <v>134</v>
+      </c>
+      <c r="C263" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A264">
+        <v>262</v>
+      </c>
+      <c r="B264">
+        <v>506</v>
+      </c>
+      <c r="C264" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A265">
+        <v>263</v>
+      </c>
+      <c r="B265">
+        <v>755</v>
+      </c>
+      <c r="C265" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A266">
+        <v>264</v>
+      </c>
+      <c r="B266">
+        <v>311</v>
+      </c>
+      <c r="C266" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A267">
+        <v>265</v>
+      </c>
+      <c r="B267">
+        <v>741</v>
+      </c>
+      <c r="C267" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A268">
+        <v>266</v>
+      </c>
+      <c r="B268">
+        <v>54</v>
+      </c>
+      <c r="C268" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A269">
+        <v>267</v>
+      </c>
+      <c r="B269">
+        <v>100</v>
+      </c>
+      <c r="C269" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A270">
+        <v>268</v>
+      </c>
+      <c r="B270">
+        <v>187</v>
+      </c>
+      <c r="C270" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A271">
+        <v>269</v>
+      </c>
+      <c r="B271">
+        <v>190</v>
+      </c>
+      <c r="C271" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A272">
+        <v>270</v>
+      </c>
+      <c r="B272">
+        <v>200</v>
+      </c>
+      <c r="C272" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A273">
+        <v>271</v>
+      </c>
+      <c r="B273">
+        <v>219</v>
+      </c>
+      <c r="C273" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A274">
+        <v>272</v>
+      </c>
+      <c r="B274">
+        <v>238</v>
+      </c>
+      <c r="C274" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A275">
+        <v>273</v>
+      </c>
+      <c r="B275">
+        <v>277</v>
+      </c>
+      <c r="C275" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A276">
+        <v>274</v>
+      </c>
+      <c r="B276">
+        <v>293</v>
+      </c>
+      <c r="C276" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A277">
+        <v>275</v>
+      </c>
+      <c r="B277">
+        <v>300</v>
+      </c>
+      <c r="C277" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A278">
+        <v>276</v>
+      </c>
+      <c r="B278">
+        <v>319</v>
+      </c>
+      <c r="C278" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A279">
+        <v>277</v>
+      </c>
+      <c r="B279">
+        <v>365</v>
+      </c>
+      <c r="C279" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A280">
+        <v>278</v>
+      </c>
+      <c r="B280">
+        <v>395</v>
+      </c>
+      <c r="C280" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A281">
+        <v>279</v>
+      </c>
+      <c r="B281">
+        <v>400</v>
+      </c>
+      <c r="C281" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A282">
+        <v>280</v>
+      </c>
+      <c r="B282">
+        <v>485</v>
+      </c>
+      <c r="C282" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A283">
+        <v>281</v>
+      </c>
+      <c r="B283">
+        <v>503</v>
+      </c>
+      <c r="C283" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A284">
+        <v>282</v>
+      </c>
+      <c r="B284">
+        <v>589</v>
+      </c>
+      <c r="C284" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A285">
+        <v>283</v>
+      </c>
+      <c r="B285">
+        <v>592</v>
+      </c>
+      <c r="C285" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A286">
+        <v>284</v>
+      </c>
+      <c r="B286">
+        <v>791</v>
+      </c>
+      <c r="C286" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A287">
+        <v>285</v>
+      </c>
+      <c r="B287">
+        <v>849</v>
+      </c>
+      <c r="C287" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A288">
+        <v>286</v>
+      </c>
+      <c r="B288">
+        <v>914</v>
+      </c>
+      <c r="C288" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A289">
+        <v>287</v>
+      </c>
+      <c r="B289">
+        <v>944</v>
+      </c>
+      <c r="C289" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A290">
+        <v>288</v>
+      </c>
+      <c r="B290">
+        <v>996</v>
+      </c>
+      <c r="C290" t="s">
+        <v>581</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>